--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashanth.venkatesan\Downloads\file_1\RE_Efile_IT_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464B3F9F-C8D5-46C8-8B92-424BCB169F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46A8A84-3864-45D2-8DF2-0852C39E6F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>Global_SMTP_Credentials</t>
-  </si>
-  <si>
-    <t>Global_SMTP_ServerName</t>
-  </si>
-  <si>
-    <t>Global_SMTP_PortNumber</t>
   </si>
 </sst>
 </file>
@@ -624,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2920,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2969,22 +2963,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
